--- a/教学/课程安排/UE4.xlsx
+++ b/教学/课程安排/UE4.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\VRGroup\教学\课程安排\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EF59729E-3D51-4284-B88E-C7BA41B17BBA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,22 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <r>
-      <t>U</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>E4的入门</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>1.界面布局的熟悉，基本操作，左手坐标系，</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -53,30 +39,114 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>4.MVC架构</t>
+    <t>4.蓝图的概念，蓝图中变量、函数的创建使用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5.蓝图的概念，蓝图中变量、函数的创建使用</t>
+    <t>5.控制器的基本概念，物体移动的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.碰撞系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.音频系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.视频系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.植被</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.流关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.地形地貌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.UI交互</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13过场动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.骨骼动画</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.光线追踪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UE4蓝图的使用</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>6.控制器的基本概念，物体移动的实现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.碰撞模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.基于物体碰撞事件的事件反馈</t>
+    <t>2.玩家控制相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.游戏控制相机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.蓝图覆写C++</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.组件和碰撞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.玩家输入和pawns</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.使用UMG的用户接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在UE4中编写C++程序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ue4中的C++：初级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ue4中的C++：高级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ue4中的C++：中级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.坦克对战</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,65 +487,165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="3" max="3" width="46.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C2" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C3" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C4" s="2" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C5" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="2" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/教学/课程安排/UE4.xlsx
+++ b/教学/课程安排/UE4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\VRGroup\教学\课程安排\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlienR4\Desktop\VRGroup\教学\课程安排\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EF59729E-3D51-4284-B88E-C7BA41B17BBA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{58C7300C-D0FD-4DCA-B0EB-23E187C7FA3E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -491,7 +491,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
